--- a/Biogeme_Logit_Models/Combined/Run_Results_Access_Enroll_Format.xlsx
+++ b/Biogeme_Logit_Models/Combined/Run_Results_Access_Enroll_Format.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Research\PORPOS-TMG\Biogeme_Logit_Models\Combined\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9933B916-175B-40E2-B52B-312C69F9025D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E2BE05-77B3-4344-A569-678FDDEAB739}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Run_Results" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Segment</t>
   </si>
@@ -143,15 +143,39 @@
   </si>
   <si>
     <t>ASC</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>YK</t>
+  </si>
+  <si>
+    <t>YG</t>
+  </si>
+  <si>
+    <t>RY</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>Campus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -736,17 +760,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -769,25 +784,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,72 +1168,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="21" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="37"/>
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -1233,47 +1265,47 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
-      <c r="B3" s="12">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="A3" s="39"/>
+      <c r="B3" s="17">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18">
         <v>1</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="18">
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="18">
         <v>3</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="18">
         <v>4</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="18">
         <v>5</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="19">
         <v>6</v>
       </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="18">
         <v>1</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="18">
         <v>2</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="18">
         <v>3</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="18">
         <v>4</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="18">
         <v>5</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="19">
         <v>6</v>
       </c>
       <c r="P3" s="7"/>
@@ -1282,22 +1314,22 @@
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>300</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>6794</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>3302</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>685</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>841</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="11">
         <v>2191</v>
       </c>
       <c r="H4" s="2">
@@ -1330,46 +1362,46 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
         <v>0</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="23">
         <v>0.81348727431323098</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="23">
         <v>0.84223199005228999</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="23">
         <v>0.80371494595613702</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="23">
         <v>0.97620931456667603</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="23">
         <v>0.94963562754989705</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="23">
         <v>0.87870158253068398</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="23">
         <v>0.83670822852041904</v>
       </c>
       <c r="P5" s="3"/>
@@ -1378,22 +1410,22 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
         <v>0</v>
       </c>
       <c r="H6" s="2">
@@ -1426,46 +1458,46 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="20">
         <v>1.5769957766396601</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="21">
         <v>1.2929257243632799</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="21">
         <v>2.2408382970176599</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="21">
         <v>1.25218017291689</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="21">
         <v>1.2496200406136599</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="21">
         <v>1.2202480965995199</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <v>0.79679537941435696</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="23">
         <v>1.6404315010397299</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="23">
         <v>1.2744576158321499</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="23">
         <v>2.1080901029771999</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="23">
         <v>1.26891134268226</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="23">
         <v>1.2146538874012001</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="23">
         <v>0.88148948285554096</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="23">
         <v>0.60998502003775101</v>
       </c>
       <c r="P7" s="3"/>
@@ -1474,25 +1506,25 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="12">
         <v>1.39888101102769E-14</v>
       </c>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
         <v>1.03028696685214E-13</v>
       </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
         <v>1.84417630637589E-5</v>
       </c>
       <c r="I8">
@@ -1513,7 +1545,7 @@
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>4.0439597090968701E-4</v>
       </c>
       <c r="P8" s="3"/>
@@ -1522,46 +1554,46 @@
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="24">
         <v>1.59597844983695</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="25">
         <v>2.1395581283396998</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="25">
         <v>1.51411571538856</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="25">
         <v>2.52180117400159</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="25">
         <v>4.8287559943207299</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="25">
         <v>4.1883116593905401</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="26">
         <v>3.9592750930192402</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="27">
         <v>10.8954607307145</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="27">
         <v>10.578827114446099</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="27">
         <v>10.578827114446099</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="27">
         <v>10.578827114446099</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="27">
         <v>9.5913761661611705</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="27">
         <v>9.5913761661611705</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="27">
         <v>9.5913761661611705</v>
       </c>
       <c r="P9" s="3" t="s">
@@ -1572,46 +1604,46 @@
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="24">
         <v>-0.44626045488245097</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="25">
         <v>1.2241624834029401</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="25">
         <v>0.59197586925418499</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="25">
         <v>0.93391201260910095</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="25">
         <v>1.1436830908215601</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="25">
         <v>1.57852446128362</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="26">
         <v>-1.05506158306533</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="27">
         <v>9.3733941584124807</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="27">
         <v>9.3496674371972794</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="27">
         <v>9.3496674371972794</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="27">
         <v>9.3496674371972794</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="27">
         <v>5.6240175061873297</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="27">
         <v>5.6240175061873297</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="27">
         <v>5.6240175061873297</v>
       </c>
       <c r="P10" s="3" t="s">
@@ -1622,46 +1654,46 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="24">
         <v>-0.15717154209510401</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="25">
         <v>1.09027951988598</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="25">
         <v>0.79156349188786501</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="25">
         <v>0.75680163955817104</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="25">
         <v>1.20316431127321</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="25">
         <v>1.6213203888249601</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="26">
         <v>-1.03184440806255</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="27">
         <v>9.4954441234131597</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="27">
         <v>9.4499083017045304</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="27">
         <v>9.4499083017045304</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="27">
         <v>9.4499083017045304</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="27">
         <v>6.3851943989977196</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="27">
         <v>6.3851943989977196</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="27">
         <v>6.3851943989977196</v>
       </c>
       <c r="P11" s="3" t="s">
@@ -1672,46 +1704,46 @@
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="24">
         <v>1.39815123364021</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="25">
         <v>2.1690792501792502</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="25">
         <v>1.9276948014036801</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="25">
         <v>2.3262092371166001</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="25">
         <v>3.6911995409082201</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="25">
         <v>3.82019520121248</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="26">
         <v>3.4102868973864102</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="27">
         <v>10.624809082278899</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="27">
         <v>10.5257829921241</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="27">
         <v>10.5257829921241</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="27">
         <v>10.5257829921241</v>
       </c>
-      <c r="M12" s="30">
+      <c r="M12" s="27">
         <v>8.2635904326173097</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="27">
         <v>8.2635904326173097</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="27">
         <v>8.2635904326173097</v>
       </c>
       <c r="P12" s="3" t="s">
@@ -1722,46 +1754,46 @@
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="27">
-        <v>0</v>
-      </c>
-      <c r="C13" s="28">
-        <v>0</v>
-      </c>
-      <c r="D13" s="28">
-        <v>0</v>
-      </c>
-      <c r="E13" s="28">
-        <v>0</v>
-      </c>
-      <c r="F13" s="28">
-        <v>0</v>
-      </c>
-      <c r="G13" s="28">
-        <v>0</v>
-      </c>
-      <c r="H13" s="29">
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
+      <c r="B13" s="24">
+        <v>0</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
         <v>7.8071032901259798</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="27">
         <v>7.7587605441576599</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="27">
         <v>7.7587605441576599</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="27">
         <v>7.7587605441576599</v>
       </c>
-      <c r="M13" s="30">
+      <c r="M13" s="27">
         <v>4.7621739347977501</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N13" s="27">
         <v>4.7621739347977501</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="27">
         <v>4.7621739347977501</v>
       </c>
       <c r="P13" s="3" t="s">
@@ -1772,46 +1804,46 @@
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="24">
         <v>2.4499564947581298</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="25">
         <v>2.1279830706531602</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="25">
         <v>0.59682839481762495</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="25">
         <v>1.67473127927914</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="25">
         <v>3.1020599420308299</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="25">
         <v>1.95833406129301</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="26">
         <v>2.13941893501796</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="27">
         <v>10.245657810271901</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="27">
         <v>10.1669281606148</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="27">
         <v>10.1669281606148</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="27">
         <v>10.1669281606148</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="27">
         <v>7.6652847184713497</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="27">
         <v>7.6652847184713497</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="27">
         <v>7.6652847184713497</v>
       </c>
       <c r="P14" s="3" t="s">
@@ -1822,46 +1854,46 @@
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="24">
         <v>-1.9635955647082399</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="25">
         <v>3.9866710570743901E-3</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="25">
         <v>-0.63340388793648095</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="25">
         <v>0.45788550020254798</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="25">
         <v>0.74645134310144501</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="25">
         <v>0.21220666884891901</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="26">
         <v>1.2205561287111999</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="27">
         <v>8.1582299169594901</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="27">
         <v>8.1074188117199704</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="27">
         <v>8.1074188117199704</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="27">
         <v>8.1074188117199704</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="27">
         <v>5.1590552992145202</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="27">
         <v>5.1590552992145202</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="27">
         <v>5.1590552992145202</v>
       </c>
       <c r="P15" s="3" t="s">
@@ -1872,46 +1904,46 @@
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="28">
         <v>-343.16823605513099</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="29">
         <v>-11073.4753624767</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="29">
         <v>-3364.7057829077098</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="29">
         <v>-1012.62389474697</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="29">
         <v>-856.35113329569901</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="29">
         <v>-1867.9238329357599</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H16" s="30">
         <v>-352.251805258773</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="31">
         <v>-425.68626583680998</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="31">
         <v>-11141.4182461332</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="31">
         <v>-3487.3280630534</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="31">
         <v>-1031.9659799921601</v>
       </c>
-      <c r="M16" s="34">
+      <c r="M16" s="31">
         <v>-860.82739654460704</v>
       </c>
-      <c r="N16" s="34">
+      <c r="N16" s="31">
         <v>-1960.5029866258401</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="31">
         <v>-376.26243836347402</v>
       </c>
       <c r="P16" s="3"/>
@@ -1920,94 +1952,94 @@
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="28">
         <v>700.336472110263</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="29">
         <v>22160.9507249534</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="29">
         <v>6743.4115658154296</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="29">
         <v>2039.24778949394</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="29">
         <v>1726.7022665913901</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="29">
         <v>3749.8476658715199</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H17" s="30">
         <v>718.50361051754601</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="31">
         <v>855.37253167362098</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="31">
         <v>22286.836492266499</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="31">
         <v>6978.65612610681</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="31">
         <v>2067.9319599843202</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="31">
         <v>1725.65479308921</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N17" s="31">
         <v>3925.0059732516802</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="31">
         <v>756.52487672694804</v>
       </c>
       <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="32">
         <v>726.26294943285598</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="33">
         <v>22208.7172909945</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="33">
         <v>6786.1275511867898</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="33">
         <v>2070.95372136178</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="33">
         <v>1759.8444082112001</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="33">
         <v>3789.6924592486798</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="34">
         <v>745.22338863728896</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="33">
         <v>862.780096622933</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="33">
         <v>22300.484082563999</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="33">
         <v>6990.8606933557703</v>
       </c>
-      <c r="L18" s="36">
+      <c r="L18" s="33">
         <v>2076.9907976608401</v>
       </c>
-      <c r="M18" s="36">
+      <c r="M18" s="33">
         <v>1735.1239764091599</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="33">
         <v>3936.39019993087</v>
       </c>
-      <c r="O18" s="37">
+      <c r="O18" s="34">
         <v>764.15909904687499</v>
       </c>
       <c r="P18" s="7"/>
@@ -2021,16 +2053,19 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B21" s="18" t="s">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I21" t="s">
@@ -2056,193 +2091,214 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B22" s="30">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="27">
         <v>10.578827114446099</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="27">
         <v>8.6712282700000003</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="27">
         <v>2.3115455709999999</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="27">
         <v>2.2930656260000002</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B23" s="30">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="27">
         <v>9.3496674371972794</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="27">
         <v>7.6637135399999998</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="27">
         <v>1.304030842</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="27">
         <v>1.455207524</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B24" s="30">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="27">
         <v>9.4499083017045304</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="27">
         <v>7.745878738</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="27">
         <v>1.3861960390000001</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="27">
         <v>1.1437425880000001</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B25" s="30">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="27">
         <v>10.5257829921241</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="27">
         <v>8.6277491879999992</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="27">
         <v>2.2680664890000002</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="27">
         <v>2.157679795</v>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B26" s="30">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="27">
         <v>7.7587605441576599</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="27">
         <v>6.3596826980000003</v>
       </c>
-      <c r="D26" s="30">
-        <v>0</v>
-      </c>
-      <c r="E26" s="30">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
+      <c r="D26" s="27">
+        <v>0</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B27" s="30">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="27">
         <v>10.1669281606148</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="27">
         <v>8.3336038989999999</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="27">
         <v>1.9739211999999999</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="27">
         <v>2.3086004739999999</v>
       </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B28" s="30">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="27">
         <v>8.1074188117199704</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="27">
         <v>6.6454700920000001</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="27">
         <v>0.285787393</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="27">
         <v>0.182230473</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
     </row>
     <row r="33" spans="9:17" x14ac:dyDescent="0.35">
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
